--- a/FE/shelData.xlsx
+++ b/FE/shelData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,32 +503,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14.7718799806491</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>120.94091440623</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -561,32 +561,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>33.4</t>
+          <t>14.7752529921365</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>120.944265521577</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>240</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -610,6 +610,1166 @@
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JMJ Covered Court</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14.7712372258247</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>120.943458029502</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Our Mother of Perpetual Help Chapel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>14.7696189084995</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>120.936960060086</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Abangan Sur Elementary School</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14.7647143396197</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>120.942286137427</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Abangan Sur Covered Court</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ibayo Elementary School</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14.7535649557989</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>120.959816737558</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Northville IV-A Covered Court</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14.7713627238379</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>120.975210215387</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lias Elementary School</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14.7627779447143</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>120.965390844846</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FSS Patulo Elementary School</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14.7839553140957</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>121.027062736924</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Marilao Central School</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14.7549081782114</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>120.949191076043</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Barangay Hall Nagbalon</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14.7523618894178</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>120.950788291388</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Patubig Elementary School</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14.7788884149633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>120.960345299663</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Old Municipal Bldg.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14.7573006861396</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>120.948177254006</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Nicanor V. Guillermo Covered Court</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>14.7596963612126</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>120.943803121954</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Prenza Elementary School</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>14.7836362981373</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>120.984338290888</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Saog Elementary School</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>14.765465938427</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>120.956198167611</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ramcar Covered Court</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>14.7646177280722</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>120.954403339867</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sta. Rosa I Elementary School</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>14.7789562092006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>120.973228584392</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sta. Rosa II Elementary School</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>14.7865722729873</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>120.968978114161</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1615</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Barangay Hall Tabing Ilog</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>14.7656033896092</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>120.948513036352</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Tabing Ilog Elementary School</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>14.7652274561484</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>120.948821314155</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FE/shelData.xlsx
+++ b/FE/shelData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PERSONAL\BRYAN\bulsu\Thesis 1\ShelterAlloc_Thesis\FE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BRYAN\ShelterAlloc_Thesis\FE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A46E59-9757-4DEF-AA75-7EA11E254F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -116,15 +115,6 @@
   </si>
   <si>
     <t>720</t>
-  </si>
-  <si>
-    <t>Abangan Sur Covered Court</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>525</t>
   </si>
   <si>
     <t>Ibayo Elementary School</t>
@@ -310,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -323,7 +313,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -667,16 +656,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -749,7 +738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -784,7 +773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -819,7 +808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -854,7 +843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -889,7 +878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -897,16 +886,16 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -924,24 +913,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
@@ -959,7 +948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -970,13 +959,13 @@
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -994,24 +983,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -1029,24 +1018,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1064,7 +1053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1075,13 +1064,13 @@
         <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
@@ -1099,24 +1088,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -1134,24 +1123,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
@@ -1169,7 +1158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -1180,13 +1169,13 @@
         <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
@@ -1204,24 +1193,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
         <v>15</v>
@@ -1239,24 +1228,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
@@ -1274,24 +1263,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
         <v>15</v>
@@ -1309,7 +1298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -1320,13 +1309,13 @@
         <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
@@ -1344,24 +1333,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
         <v>15</v>
@@ -1379,24 +1368,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
@@ -1414,24 +1403,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
         <v>15</v>
@@ -1446,41 +1435,6 @@
         <v>16</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" t="s">
         <v>17</v>
       </c>
     </row>

--- a/FE/shelData.xlsx
+++ b/FE/shelData.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/FE/shelData.xlsx
+++ b/FE/shelData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,22 +498,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BMLTC Multi-Purpose Bldg and EC</t>
+          <t>Pambayang Dalubhasaan ng Marilao</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14.9185376869108</t>
+          <t>14.7718799806491</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120.766768211462</t>
+          <t>120.94091440623</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -523,12 +523,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -556,22 +556,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>F. Mendoza Memorial Elem Sch.</t>
+          <t>Abangan Norte Elementary School</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14.9176780529243</t>
+          <t>14.7752529921365</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120.767878787289</t>
+          <t>120.944265521577</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>240</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -581,12 +581,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -614,22 +614,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Calumpit Sports Complex</t>
+          <t>JMJ Covered Court</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14.9185209048724</t>
+          <t>14.7712372258247</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>120.767571728115</t>
+          <t>120.943458029502</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -672,22 +672,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gatbuca Basketball Court</t>
+          <t>Our Mother of Perpetual Help Chapel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14.9221390531142</t>
+          <t>14.7696189084995</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>120.766774213649</t>
+          <t>120.936960060086</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -730,22 +730,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>San Miguel Evacuation Center</t>
+          <t>Abangan Sur Elementary School</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14.9239360863606</t>
+          <t>14.7647143396197</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>120.743854227842</t>
+          <t>120.942286137427</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>720</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -755,12 +755,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -788,22 +788,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Doña Damiana Elem School</t>
+          <t>Abangan Sur Covered Court</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14.9183631788682</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>120.74341426756</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>525</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -813,12 +813,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -846,22 +846,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Danga Dike</t>
+          <t>Ibayo Elementary School</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14.9271290793079</t>
+          <t>14.7535649557989</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>120.75016278348</t>
+          <t>120.959816737558</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>150</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -871,12 +871,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -904,22 +904,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Meysulao Multipurpose/E.C.</t>
+          <t>Northville IV-A Covered Court</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14.9059685215204</t>
+          <t>14.7713627238379</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>120.739306695061</t>
+          <t>120.975210215387</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -929,12 +929,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -962,22 +962,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meysulao Dike </t>
+          <t>Lias Elementary School</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14.9103133008009</t>
+          <t>14.7627779447143</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>120.738828966419</t>
+          <t>120.965390844846</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>448</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1020,22 +1020,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Calizon Dike</t>
+          <t>FSS Patulo Elementary School</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14.9149192538653</t>
+          <t>14.7839553140957</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>120.749282551866</t>
+          <t>121.027062736924</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1078,22 +1078,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>San Marcos Elem. Sch.</t>
+          <t>Marilao Central School</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14.8978852342351</t>
+          <t>14.7549081782114</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>120.778807101888</t>
+          <t>120.949191076043</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1103,12 +1103,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1136,17 +1136,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>San Marcos National H.S.</t>
+          <t>Barangay Hall Nagbalon</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14.8938559117996</t>
+          <t>14.7523618894178</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>120.778052198391</t>
+          <t>120.950788291388</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1194,22 +1194,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GMA Kapuso E.C.</t>
+          <t>Patubig Elementary School</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14.8957602136898</t>
+          <t>14.7788884149633</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>120.796318926682</t>
+          <t>120.960345299663</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>75</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1252,22 +1252,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NV9 Multi-Purpose</t>
+          <t>Old Municipal Bldg.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>14.8984661105575</t>
+          <t>14.7573006861396</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>120.765656923103</t>
+          <t>120.948177254006</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>75</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1310,22 +1310,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Frances E.C.</t>
+          <t>Nicanor V. Guillermo Covered Court</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14.9194611702998</t>
+          <t>14.7596963612126</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>120.762172685224</t>
+          <t>120.943803121954</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1335,12 +1335,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1368,22 +1368,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Balungao E.C.</t>
+          <t>Prenza Elementary School</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14.9148551401837</t>
+          <t>14.7836362981373</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>120.761492937455</t>
+          <t>120.984338290888</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>120</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1393,12 +1393,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1426,22 +1426,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gugo E.C.</t>
+          <t>Saog Elementary School</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>14.9020620809296</t>
+          <t>14.765465938427</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>120.754567377767</t>
+          <t>120.956198167611</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>500</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1484,22 +1484,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>San Marcos E.C.</t>
+          <t>Ramcar Covered Court</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>14.8977769256005</t>
+          <t>14.7646177280722</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>120.779698188389</t>
+          <t>120.954403339867</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1542,22 +1542,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>San Jose E.C.</t>
+          <t>Sta. Rosa I Elementary School</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14.8832968907295</t>
+          <t>14.7789562092006</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>120.734404217521</t>
+          <t>120.973228584392</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1567,12 +1567,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1600,22 +1600,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MEYTO Multi-Purpose/ E.C.</t>
+          <t>Sta. Rosa II Elementary School</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>14.8833047964844</t>
+          <t>14.7865722729873</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>120.72904705443</t>
+          <t>120.968978114161</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1625,12 +1625,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1658,22 +1658,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Barangay Hall Bulusan</t>
+          <t>Barangay Hall Tabing Ilog</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>14.9104237817507</t>
+          <t>14.7656033896092</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>120.742556915324</t>
+          <t>120.948513036352</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>272</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1716,22 +1716,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brgy. Hall Sta. Lucia</t>
+          <t>Tabing Ilog Elementary School</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>14.9014927315593</t>
+          <t>14.7652274561484</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>120.736527735677</t>
+          <t>120.948821314155</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>798</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1741,12 +1741,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1770,64 +1770,6 @@
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Mun. Covered Court</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>14.9142263888355</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>120.765260684344</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>1000000</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
